--- a/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
+++ b/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRONICOS III\laboratorio\2. CIRCUITOS RESONANTES\INFORME FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C1285-361B-414A-92A3-08FC5C6953ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA75251-5D17-489A-95F8-D51924F1E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="456" windowWidth="11520" windowHeight="12504" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
+    <workbookView xWindow="0" yWindow="1536" windowWidth="16140" windowHeight="11424" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Wo</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Vo [mV]</t>
+  </si>
+  <si>
+    <t>Se pudo apreciar durante la experimentación que la forma de onda de salida en R2 para frecuencias mucho menores a la Fo se encuentran desfasadas considerablemente en comparación a F cercanas por debajo o encima  a Fo.
+Mantiendo la misma fase que la señal de entrada cuando F es igual a Fo, además en este punto se pudo apreciar la máxima corriente y voltaje, el cual ronda los 707 mV y los 1.414mA.
+Finalmente cuando la frecuencia de es menor o mayor a la Fo la señal de salida cuenta con un retardo de fase en función a la frecuencia.
+Este efecto se puede apreciar de forma significativa a bajas frecuencias, por ejemplo dentro de los 10 a 300Hz</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +138,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9977AB2-8B64-4119-B5C3-5A5B692B16F2}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +469,7 @@
     <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -468,13 +477,13 @@
         <f>9*10^-3</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -482,17 +491,23 @@
         <f>5.6*10^-6</f>
         <v>5.5999999999999997E-6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -509,8 +524,12 @@
       <c r="F3" s="1">
         <v>0.666875</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -527,8 +546,12 @@
       <c r="F4" s="1">
         <v>1.0329999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>50</v>
       </c>
@@ -538,8 +561,12 @@
       <c r="F5" s="1">
         <v>1.325</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>100</v>
       </c>
@@ -549,8 +576,12 @@
       <c r="F6" s="1">
         <v>1.391</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <f>D6 + 100</f>
         <v>200</v>
@@ -561,10 +592,14 @@
       <c r="F7" s="1">
         <v>1.409</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
-        <f t="shared" ref="D8:D18" si="0">D7 + 100</f>
+        <f t="shared" ref="D8:D12" si="0">D7 + 100</f>
         <v>300</v>
       </c>
       <c r="E8" s="1">
@@ -573,8 +608,12 @@
       <c r="F8" s="1">
         <v>1.4119999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -585,8 +624,12 @@
       <c r="F9" s="1">
         <v>1.413</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -597,8 +640,12 @@
       <c r="F10" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -609,8 +656,12 @@
       <c r="F11" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -621,8 +672,12 @@
       <c r="F12" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>708.93</v>
       </c>
@@ -632,8 +687,12 @@
       <c r="F13" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>850</v>
       </c>
@@ -643,8 +702,12 @@
       <c r="F14" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>950</v>
       </c>
@@ -654,8 +717,12 @@
       <c r="F15" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>1000</v>
       </c>
@@ -665,8 +732,12 @@
       <c r="F16" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>1200</v>
       </c>
@@ -676,8 +747,12 @@
       <c r="F17" s="1">
         <v>1.4139999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>2000</v>
       </c>
@@ -687,8 +762,12 @@
       <c r="F18" s="1">
         <v>1.411</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>2500</v>
       </c>
@@ -698,8 +777,12 @@
       <c r="F19" s="1">
         <v>1.409</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>3500</v>
       </c>
@@ -709,8 +792,12 @@
       <c r="F20" s="1">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>5000</v>
       </c>
@@ -720,10 +807,15 @@
       <c r="F21" s="1">
         <v>1.39</v>
       </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H2:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
+++ b/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRONICOS III\laboratorio\2. CIRCUITOS RESONANTES\INFORME FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRÓNICOS IIII\laboratorio\2. CIRCUITOS RESONANTES\INFORME FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA75251-5D17-489A-95F8-D51924F1E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A62A3-C825-476E-9336-D013799D7924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="16140" windowHeight="11424" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -157,6 +157,1170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Io [mA] -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Frecuencia generador [Hz]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Io [mA]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>708.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C09-41D9-A3EA-176AD4D97913}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="803951311"/>
+        <c:axId val="803951791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="803951311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-PE" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803951791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="803951791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Corriente Io</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-PE" baseline="0"/>
+                  <a:t> -{mA}</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803951311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE5CACA-6CFA-EC08-0DE2-798BB4944A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,18 +1622,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9977AB2-8B64-4119-B5C3-5A5B692B16F2}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -483,7 +1647,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -507,7 +1671,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -529,7 +1693,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -551,7 +1715,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>50</v>
       </c>
@@ -566,7 +1730,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>100</v>
       </c>
@@ -581,7 +1745,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <f>D6 + 100</f>
         <v>200</v>
@@ -597,7 +1761,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <f t="shared" ref="D8:D12" si="0">D7 + 100</f>
         <v>300</v>
@@ -613,7 +1777,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -629,7 +1793,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -645,7 +1809,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -661,7 +1825,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -677,7 +1841,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>708.93</v>
       </c>
@@ -692,7 +1856,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>850</v>
       </c>
@@ -707,7 +1871,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>950</v>
       </c>
@@ -722,7 +1886,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>1000</v>
       </c>
@@ -737,7 +1901,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>1200</v>
       </c>
@@ -752,7 +1916,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>2000</v>
       </c>
@@ -767,7 +1931,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>2500</v>
       </c>
@@ -782,7 +1946,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>3500</v>
       </c>
@@ -797,7 +1961,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>5000</v>
       </c>
@@ -819,5 +1983,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
+++ b/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRÓNICOS IIII\laboratorio\2. CIRCUITOS RESONANTES\INFORME FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRONICOS III\laboratorio\2. CIRCUITOS RESONANTES\INFORME FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A62A3-C825-476E-9336-D013799D7924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F239C2-90CB-4868-9DC2-C7F355925EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
+    <workbookView xWindow="768" yWindow="1224" windowWidth="16140" windowHeight="11424" activeTab="1" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Curva Experimental" sheetId="1" r:id="rId1"/>
+    <sheet name="Curva Teorica" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Wo</t>
   </si>
@@ -66,6 +67,9 @@
 Mantiendo la misma fase que la señal de entrada cuando F es igual a Fo, además en este punto se pudo apreciar la máxima corriente y voltaje, el cual ronda los 707 mV y los 1.414mA.
 Finalmente cuando la frecuencia de es menor o mayor a la Fo la señal de salida cuenta con un retardo de fase en función a la frecuencia.
 Este efecto se puede apreciar de forma significativa a bajas frecuencias, por ejemplo dentro de los 10 a 300Hz</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -97,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,11 +124,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,6 +182,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +294,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$2</c:f>
+              <c:f>'Curva Experimental'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -279,7 +329,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$21</c:f>
+              <c:f>'Curva Experimental'!$D$3:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -345,7 +395,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$F$2:$F$21</c:f>
+              <c:f>'Curva Experimental'!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -726,7 +776,609 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Io [mA] - Frecuencia de la señal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> F [Hz]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Curva Teorica'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Io [mA]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Curva Teorica'!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>708.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Curva Teorica'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10377405000467758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25012847137572053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41338023362252879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45587168092319841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4678614559492042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47010124869344999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47090993350620292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47121722102056413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47137175047533919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47139989171997676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47139999999999188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47135291315671241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47126332548267835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47120982558740232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47096714552580454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46932591118325351</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46782624621275432</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46384351170955718</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45564471437214327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C0A-46F2-9C80-B30A4B538475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1073012976"/>
+        <c:axId val="582278080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1073012976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-PE" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582278080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="582278080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Io [mA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073012976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1282,6 +1934,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1303,6 +2471,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE5CACA-6CFA-EC08-0DE2-798BB4944A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD41B241-DE83-EDBC-930D-C40EF9294F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,18 +2831,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9977AB2-8B64-4119-B5C3-5A5B692B16F2}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +2856,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +2880,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +2902,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,7 +2924,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>50</v>
       </c>
@@ -1730,7 +2939,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>100</v>
       </c>
@@ -1745,7 +2954,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <f>D6 + 100</f>
         <v>200</v>
@@ -1761,7 +2970,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <f t="shared" ref="D8:D12" si="0">D7 + 100</f>
         <v>300</v>
@@ -1777,7 +2986,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -1793,7 +3002,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -1809,7 +3018,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -1825,7 +3034,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -1841,7 +3050,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>708.93</v>
       </c>
@@ -1856,7 +3065,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>850</v>
       </c>
@@ -1871,7 +3080,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>950</v>
       </c>
@@ -1886,7 +3095,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>1000</v>
       </c>
@@ -1901,7 +3110,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>1200</v>
       </c>
@@ -1916,7 +3125,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>2000</v>
       </c>
@@ -1931,7 +3140,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>2500</v>
       </c>
@@ -1946,7 +3155,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>3500</v>
       </c>
@@ -1961,7 +3170,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>5000</v>
       </c>
@@ -1985,4 +3194,298 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD6104F-761A-4DA4-84DD-3F8EDDB195E8}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>0.009</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>333.43700000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C21" si="0">B3/(SQRT( POWER( $F$1,2)+POWER(PI()*A3*$F$2*2 - 1/(A3*$F$3*2*PI()),2)))</f>
+        <v>0.10377405000467758</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>5.6*10^-6</f>
+        <v>5.5999999999999997E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>516.62900000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25012847137572053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>662.68399999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41338023362252879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>695.49800000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45587168092319841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>A6 + 100</f>
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>704.45500000000004</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4678614559492042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A12" si="1">A7 + 100</f>
+        <v>300</v>
+      </c>
+      <c r="B8" s="1">
+        <v>706.09900000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47010124869344999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="B9" s="1">
+        <v>706.73299999999995</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47090993350620292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>706.95399999999995</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47121722102056413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="B11" s="1">
+        <v>707.08600000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47137175047533919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="B12" s="1">
+        <v>707.1</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47139989171997676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>708.93</v>
+      </c>
+      <c r="B13" s="1">
+        <v>707.1</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47139999999999188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>850</v>
+      </c>
+      <c r="B14" s="1">
+        <v>707.06299999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47135291315671241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>950</v>
+      </c>
+      <c r="B15" s="1">
+        <v>706.98400000000004</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47126332548267835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>706.93899999999996</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47120982558740232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B17" s="1">
+        <v>706.75699999999995</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47096714552580454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>705.51700000000005</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46932591118325351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B19" s="1">
+        <v>704.37</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46782624621275432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B20" s="1">
+        <v>701.31299999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46384351170955718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>695.02800000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45564471437214327</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
+++ b/2. CIRCUITOS RESONANTES/INFORME FINAL/resonancia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRONICOS III\laboratorio\2. CIRCUITOS RESONANTES\INFORME FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRÓNICOS IIII\laboratorio\2. CIRCUITOS RESONANTES\INFORME FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F239C2-90CB-4868-9DC2-C7F355925EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3726C497-E97E-4AD6-9F8C-202E6824ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1224" windowWidth="16140" windowHeight="11424" activeTab="1" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{13B88763-F0A5-42E8-9ED8-A377EE544D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Curva Experimental" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -279,7 +277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -846,7 +844,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2831,18 +2829,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9977AB2-8B64-4119-B5C3-5A5B692B16F2}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2856,7 +2854,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2880,7 +2878,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2900,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2922,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>50</v>
       </c>
@@ -2939,7 +2937,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>100</v>
       </c>
@@ -2954,7 +2952,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <f>D6 + 100</f>
         <v>200</v>
@@ -2970,7 +2968,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <f t="shared" ref="D8:D12" si="0">D7 + 100</f>
         <v>300</v>
@@ -2986,7 +2984,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -3002,7 +3000,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -3018,7 +3016,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -3034,7 +3032,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -3050,7 +3048,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>708.93</v>
       </c>
@@ -3065,7 +3063,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>850</v>
       </c>
@@ -3080,7 +3078,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>950</v>
       </c>
@@ -3095,7 +3093,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>1000</v>
       </c>
@@ -3110,7 +3108,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>1200</v>
       </c>
@@ -3125,7 +3123,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>2000</v>
       </c>
@@ -3140,7 +3138,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>2500</v>
       </c>
@@ -3155,7 +3153,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>3500</v>
       </c>
@@ -3170,7 +3168,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>5000</v>
       </c>
@@ -3201,15 +3199,15 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3240,7 +3238,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>333.43700000000001</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C21" si="0">B3/(SQRT( POWER( $F$1,2)+POWER(PI()*A3*$F$2*2 - 1/(A3*$F$3*2*PI()),2)))</f>
+        <f>B3/(SQRT( POWER( $F$1,2)+POWER(PI()*A3*$F$2*2 - 1/(A3*$F$3*2*PI()),2)))</f>
         <v>0.10377405000467758</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3259,7 +3257,7 @@
         <v>5.5999999999999997E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -3267,11 +3265,11 @@
         <v>516.62900000000002</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C21" si="0">B4/(SQRT( POWER( $F$1,2)+POWER(PI()*A4*$F$2*2 - 1/(A4*$F$3*2*PI()),2)))</f>
         <v>0.25012847137572053</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -3283,7 +3281,7 @@
         <v>0.41338023362252879</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -3295,7 +3293,7 @@
         <v>0.45587168092319841</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>A6 + 100</f>
         <v>200</v>
@@ -3308,7 +3306,7 @@
         <v>0.4678614559492042</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ref="A8:A12" si="1">A7 + 100</f>
         <v>300</v>
@@ -3321,7 +3319,7 @@
         <v>0.47010124869344999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
@@ -3334,7 +3332,7 @@
         <v>0.47090993350620292</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>500</v>
@@ -3347,7 +3345,7 @@
         <v>0.47121722102056413</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>600</v>
@@ -3360,7 +3358,7 @@
         <v>0.47137175047533919</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>700</v>
@@ -3373,7 +3371,7 @@
         <v>0.47139989171997676</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>708.93</v>
       </c>
@@ -3385,7 +3383,7 @@
         <v>0.47139999999999188</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>850</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>0.47135291315671241</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>950</v>
       </c>
@@ -3409,7 +3407,7 @@
         <v>0.47126332548267835</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1000</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>0.47120982558740232</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1200</v>
       </c>
@@ -3433,7 +3431,7 @@
         <v>0.47096714552580454</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2000</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>0.46932591118325351</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2500</v>
       </c>
@@ -3457,7 +3455,7 @@
         <v>0.46782624621275432</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3500</v>
       </c>
@@ -3469,7 +3467,7 @@
         <v>0.46384351170955718</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5000</v>
       </c>
